--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\T2DM iHMP Data\subject data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\T2DM iHMP Data\subject data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55773726-7673-4AF1-A1EF-802B30261711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18073554-0522-4FFA-906C-4A45FB15C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="0" windowWidth="10220" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10490" yWindow="0" windowWidth="8720" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,9 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -681,6 +678,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1730,35 +1730,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="D27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30">
         <v>59.12</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <v>25.91</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>111</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="33">
+      <c r="H27" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="32">
         <v>15</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1849,35 +1849,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="27">
+      <c r="B31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="26">
         <v>48.86</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <v>37.42</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>257</v>
       </c>
-      <c r="H31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="29">
+      <c r="H31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="28">
         <v>13</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1910,35 +1910,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="B33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="26">
         <v>55.92</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="26">
         <v>27.34</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="26">
         <v>166</v>
       </c>
-      <c r="H33" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="29">
-        <v>14</v>
-      </c>
-      <c r="J33" s="30" t="s">
+      <c r="H33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="28">
+        <v>14</v>
+      </c>
+      <c r="J33" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2058,35 +2058,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="B38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="30">
         <v>47.19</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <v>30.33</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="30">
         <v>71</v>
       </c>
-      <c r="H38" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="33">
+      <c r="H38" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="32">
         <v>20</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2119,67 +2119,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="34">
+      <c r="B40" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="33">
         <v>45.06</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>24.89</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <v>61</v>
       </c>
-      <c r="H40" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="36">
+      <c r="H40" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="35">
         <v>22</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="B41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="22">
         <v>61.94</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>29.47</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>224.6</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="25">
-        <v>18</v>
-      </c>
-      <c r="J41" s="26" t="s">
+      <c r="H41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="24">
+        <v>18</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>86</v>
       </c>
     </row>

--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\T2DM iHMP Data\subject data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/T2DM iHMP Data/subject data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18073554-0522-4FFA-906C-4A45FB15C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18073554-0522-4FFA-906C-4A45FB15C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A63BED11-412F-4EED-AFF7-FFA92C859D87}"/>
   <bookViews>
-    <workbookView xWindow="10490" yWindow="0" windowWidth="8720" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="0" windowWidth="9510" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,11 +349,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -365,6 +360,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -585,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,16 +627,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -663,22 +656,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,13 +974,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="24.54296875" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="7"/>
@@ -1006,7 +1017,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1035,7 +1046,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1064,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1093,7 +1104,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1122,7 +1133,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1151,7 +1162,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1180,7 +1191,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1209,7 +1220,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1238,7 +1249,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1267,7 +1278,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1296,7 +1307,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1325,7 +1336,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1354,7 +1365,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1383,7 +1394,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1412,7 +1423,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1441,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1470,7 +1481,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1499,7 +1510,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1528,7 +1539,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1557,7 +1568,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1586,7 +1597,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1615,7 +1626,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1644,7 +1655,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1673,7 +1684,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1702,7 +1713,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1730,40 +1741,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="D27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="27">
         <v>59.12</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="27">
         <v>25.91</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="27">
         <v>111</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="32">
+      <c r="H27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="29">
         <v>15</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1792,7 +1803,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1821,7 +1832,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1849,40 +1860,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="B31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="23">
         <v>48.86</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="23">
         <v>37.42</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="23">
         <v>257</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="28">
+      <c r="H31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="25">
         <v>13</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1910,40 +1921,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="B33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="23">
         <v>55.92</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="23">
         <v>27.34</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <v>166</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="28">
-        <v>14</v>
-      </c>
-      <c r="J33" s="29" t="s">
+      <c r="H33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="25">
+        <v>14</v>
+      </c>
+      <c r="J33" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1972,7 +1983,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2001,7 +2012,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2030,7 +2041,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2058,40 +2069,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="30">
+      <c r="B38" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="27">
         <v>47.19</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="27">
         <v>30.33</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="27">
         <v>71</v>
       </c>
-      <c r="H38" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="32">
+      <c r="H38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="29">
         <v>20</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="J38" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2119,101 +2130,101 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="33">
+      <c r="B40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="30">
         <v>45.06</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="30">
         <v>24.89</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="30">
         <v>61</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="35">
+      <c r="H40" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="32">
         <v>22</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:10" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="B41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="19">
         <v>61.94</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="19">
         <v>29.47</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="19">
         <v>224.6</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="24">
-        <v>18</v>
-      </c>
-      <c r="J41" s="25" t="s">
+      <c r="H41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="21">
+        <v>18</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="16">
         <v>63.04</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="16">
         <v>24.07</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="16">
         <v>155.37</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="H42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2242,7 +2253,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2271,7 +2282,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2300,7 +2311,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2329,7 +2340,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2358,7 +2369,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2387,7 +2398,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2416,7 +2427,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2445,7 +2456,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2474,7 +2485,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2503,7 +2514,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2532,7 +2543,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2561,7 +2572,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2590,7 +2601,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2619,7 +2630,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2648,7 +2659,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2677,7 +2688,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2706,7 +2717,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2735,7 +2746,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2764,7 +2775,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2793,7 +2804,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2822,7 +2833,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2851,7 +2862,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2880,7 +2891,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2909,7 +2920,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2939,6 +2950,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/T2DM iHMP Data/subject data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18073554-0522-4FFA-906C-4A45FB15C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A63BED11-412F-4EED-AFF7-FFA92C859D87}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{18073554-0522-4FFA-906C-4A45FB15C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECF79EAC-1A40-42FE-8E86-8E7D376B00E7}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="0" windowWidth="9510" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,7 +975,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
